--- a/campi-10-2.5.log.xlsx
+++ b/campi-10-2.5.log.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay\Downloads\autodrive-master\autodrive-master\rpi\dataset5-nopause\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E6C7F0-4459-4B1A-8CF4-F7D633E51CD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D41F698-D99B-4229-86B5-90DA127A5B54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2430" windowWidth="29040" windowHeight="20520"/>
+    <workbookView xWindow="2025" yWindow="2025" windowWidth="29040" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="campi-10-2.5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'campi-10-2.5'!$A$1:$F$136</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>L</t>
   </si>
@@ -33,11 +44,17 @@
   <si>
     <t>delta Time</t>
   </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3482,17 +3499,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,6 +3526,12 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3523,6 +3547,10 @@
       <c r="D2">
         <v>34</v>
       </c>
+      <c r="E2">
+        <f>ABS((C2-D2)/2)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3538,6 +3566,10 @@
       <c r="D3">
         <v>34</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">ABS((C3-D3)/2)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3553,6 +3585,10 @@
       <c r="D4">
         <v>34</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3568,9 +3604,9 @@
       <c r="D5">
         <v>32</v>
       </c>
-      <c r="F5">
-        <f>STDEV(C2:C136)</f>
-        <v>16.406702239811889</v>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,6 +3623,10 @@
       <c r="D6">
         <v>29</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3602,6 +3642,10 @@
       <c r="D7">
         <v>29</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3617,6 +3661,10 @@
       <c r="D8">
         <v>29</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3632,6 +3680,10 @@
       <c r="D9">
         <v>29</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3647,6 +3699,10 @@
       <c r="D10">
         <v>28</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3662,6 +3718,10 @@
       <c r="D11">
         <v>28</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3677,6 +3737,10 @@
       <c r="D12">
         <v>26</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3692,6 +3756,10 @@
       <c r="D13">
         <v>25</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3707,6 +3775,10 @@
       <c r="D14">
         <v>24</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3722,6 +3794,10 @@
       <c r="D15">
         <v>25</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3737,8 +3813,12 @@
       <c r="D16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1551307386.1500001</v>
       </c>
@@ -3752,8 +3832,12 @@
       <c r="D17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1551307386.24</v>
       </c>
@@ -3767,8 +3851,12 @@
       <c r="D18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1551307386.3399999</v>
       </c>
@@ -3782,8 +3870,12 @@
       <c r="D19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1551307386.4300001</v>
       </c>
@@ -3797,8 +3889,12 @@
       <c r="D20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1551307386.52</v>
       </c>
@@ -3812,8 +3908,12 @@
       <c r="D21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1551307386.6199999</v>
       </c>
@@ -3827,8 +3927,12 @@
       <c r="D22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1551307386.71</v>
       </c>
@@ -3842,8 +3946,12 @@
       <c r="D23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1551307386.8</v>
       </c>
@@ -3857,8 +3965,12 @@
       <c r="D24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1551307386.9000001</v>
       </c>
@@ -3872,8 +3984,12 @@
       <c r="D25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1551307386.99</v>
       </c>
@@ -3887,8 +4003,12 @@
       <c r="D26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1551307387.0899999</v>
       </c>
@@ -3902,8 +4022,12 @@
       <c r="D27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1551307387.1800001</v>
       </c>
@@ -3917,8 +4041,12 @@
       <c r="D28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1551307387.27</v>
       </c>
@@ -3932,8 +4060,12 @@
       <c r="D29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1551307387.3699999</v>
       </c>
@@ -3947,8 +4079,12 @@
       <c r="D30">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1551307387.47</v>
       </c>
@@ -3962,8 +4098,12 @@
       <c r="D31">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1551307387.5699999</v>
       </c>
@@ -3977,8 +4117,12 @@
       <c r="D32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1551307387.6500001</v>
       </c>
@@ -3992,8 +4136,12 @@
       <c r="D33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1551307387.74</v>
       </c>
@@ -4007,8 +4155,12 @@
       <c r="D34">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1551307387.8399999</v>
       </c>
@@ -4022,8 +4174,12 @@
       <c r="D35">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1551307387.9300001</v>
       </c>
@@ -4037,8 +4193,12 @@
       <c r="D36">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1551307388.02</v>
       </c>
@@ -4052,8 +4212,12 @@
       <c r="D37">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1551307388.1199999</v>
       </c>
@@ -4067,8 +4231,12 @@
       <c r="D38">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1551307388.21</v>
       </c>
@@ -4082,8 +4250,12 @@
       <c r="D39">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1551307388.3</v>
       </c>
@@ -4097,8 +4269,12 @@
       <c r="D40">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1551307388.4000001</v>
       </c>
@@ -4112,8 +4288,12 @@
       <c r="D41">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1551307388.49</v>
       </c>
@@ -4127,8 +4307,12 @@
       <c r="D42">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1551307388.5899999</v>
       </c>
@@ -4142,8 +4326,12 @@
       <c r="D43">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1551307388.6800001</v>
       </c>
@@ -4157,8 +4345,12 @@
       <c r="D44">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1551307388.77</v>
       </c>
@@ -4172,8 +4364,12 @@
       <c r="D45">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1551307388.8699999</v>
       </c>
@@ -4187,8 +4383,12 @@
       <c r="D46">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1551307388.96</v>
       </c>
@@ -4202,8 +4402,12 @@
       <c r="D47">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1551307389.05</v>
       </c>
@@ -4217,8 +4421,12 @@
       <c r="D48">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1551307389.1500001</v>
       </c>
@@ -4232,8 +4440,12 @@
       <c r="D49">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1551307389.24</v>
       </c>
@@ -4247,8 +4459,12 @@
       <c r="D50">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1551307389.3399999</v>
       </c>
@@ -4262,8 +4478,12 @@
       <c r="D51">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1551307389.4300001</v>
       </c>
@@ -4277,8 +4497,12 @@
       <c r="D52">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1551307389.52</v>
       </c>
@@ -4292,8 +4516,12 @@
       <c r="D53">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1551307389.6199999</v>
       </c>
@@ -4307,8 +4535,12 @@
       <c r="D54">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1551307389.71</v>
       </c>
@@ -4322,8 +4554,12 @@
       <c r="D55">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1551307389.8</v>
       </c>
@@ -4337,8 +4573,12 @@
       <c r="D56">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1551307389.95</v>
       </c>
@@ -4352,8 +4592,12 @@
       <c r="D57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1551307389.99</v>
       </c>
@@ -4367,8 +4611,12 @@
       <c r="D58">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1551307390.1300001</v>
       </c>
@@ -4382,8 +4630,12 @@
       <c r="D59">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1551307390.22</v>
       </c>
@@ -4397,8 +4649,12 @@
       <c r="D60">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1551307390.3099999</v>
       </c>
@@ -4412,8 +4668,12 @@
       <c r="D61">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1551307390.4000001</v>
       </c>
@@ -4427,8 +4687,12 @@
       <c r="D62">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1551307390.49</v>
       </c>
@@ -4442,8 +4706,12 @@
       <c r="D63">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1551307390.5899999</v>
       </c>
@@ -4457,8 +4725,12 @@
       <c r="D64">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1551307390.6800001</v>
       </c>
@@ -4472,8 +4744,12 @@
       <c r="D65">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1551307390.77</v>
       </c>
@@ -4487,13 +4763,17 @@
       <c r="D66">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1551307390.8699999</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">A67-1551307384.83</f>
+        <f t="shared" ref="B67:B130" si="2">A67-1551307384.83</f>
         <v>6.0399999618530273</v>
       </c>
       <c r="C67">
@@ -4502,13 +4782,17 @@
       <c r="D67">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="3">ABS((C67-D67)/2)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1551307390.96</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.130000114440918</v>
       </c>
       <c r="C68">
@@ -4517,13 +4801,17 @@
       <c r="D68">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1551307391.1099999</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2799999713897705</v>
       </c>
       <c r="C69">
@@ -4532,13 +4820,17 @@
       <c r="D69">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1551307391.1400001</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3100001811981201</v>
       </c>
       <c r="C70">
@@ -4547,13 +4839,17 @@
       <c r="D70">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1551307391.1800001</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3500001430511475</v>
       </c>
       <c r="C71">
@@ -4562,13 +4858,17 @@
       <c r="D71">
         <v>49</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1551307391.27</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.440000057220459</v>
       </c>
       <c r="C72">
@@ -4577,13 +4877,17 @@
       <c r="D72">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1551307391.3699999</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5399999618530273</v>
       </c>
       <c r="C73">
@@ -4592,13 +4896,17 @@
       <c r="D73">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1551307391.46</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.630000114440918</v>
       </c>
       <c r="C74">
@@ -4607,13 +4915,17 @@
       <c r="D74">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1551307391.55</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7200000286102295</v>
       </c>
       <c r="C75">
@@ -4622,13 +4934,17 @@
       <c r="D75">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1551307391.6500001</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.820000171661377</v>
       </c>
       <c r="C76">
@@ -4637,13 +4953,17 @@
       <c r="D76">
         <v>49</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1551307391.74</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9100000858306885</v>
       </c>
       <c r="C77">
@@ -4652,13 +4972,17 @@
       <c r="D77">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1551307391.8299999</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C78">
@@ -4667,13 +4991,17 @@
       <c r="D78">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1551307391.9300001</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1000001430511475</v>
       </c>
       <c r="C79">
@@ -4682,13 +5010,17 @@
       <c r="D79">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1551307392.02</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.190000057220459</v>
       </c>
       <c r="C80">
@@ -4697,13 +5029,17 @@
       <c r="D80">
         <v>55</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1551307392.1199999</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2899999618530273</v>
       </c>
       <c r="C81">
@@ -4712,13 +5048,17 @@
       <c r="D81">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1551307392.21</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.380000114440918</v>
       </c>
       <c r="C82">
@@ -4727,13 +5067,17 @@
       <c r="D82">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1551307392.3099999</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4800000190734863</v>
       </c>
       <c r="C83">
@@ -4742,13 +5086,17 @@
       <c r="D83">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1551307392.4000001</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.570000171661377</v>
       </c>
       <c r="C84">
@@ -4757,13 +5105,17 @@
       <c r="D84">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1551307392.49</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6600000858306885</v>
       </c>
       <c r="C85">
@@ -4772,13 +5124,17 @@
       <c r="D85">
         <v>43</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1551307392.5899999</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7599999904632568</v>
       </c>
       <c r="C86">
@@ -4787,13 +5143,17 @@
       <c r="D86">
         <v>41</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1551307392.6800001</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8500001430511475</v>
       </c>
       <c r="C87">
@@ -4802,13 +5162,17 @@
       <c r="D87">
         <v>40</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1551307392.77</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.940000057220459</v>
       </c>
       <c r="C88">
@@ -4817,13 +5181,17 @@
       <c r="D88">
         <v>39</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1551307392.8699999</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0399999618530273</v>
       </c>
       <c r="C89">
@@ -4832,13 +5200,17 @@
       <c r="D89">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1551307392.96</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.130000114440918</v>
       </c>
       <c r="C90">
@@ -4847,13 +5219,17 @@
       <c r="D90">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1551307393.0599999</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2300000190734863</v>
       </c>
       <c r="C91">
@@ -4862,13 +5238,17 @@
       <c r="D91">
         <v>37</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1551307393.1500001</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.320000171661377</v>
       </c>
       <c r="C92">
@@ -4877,13 +5257,17 @@
       <c r="D92">
         <v>36</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1551307393.24</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4100000858306885</v>
       </c>
       <c r="C93">
@@ -4892,13 +5276,17 @@
       <c r="D93">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1551307393.3399999</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5099999904632568</v>
       </c>
       <c r="C94">
@@ -4907,13 +5295,17 @@
       <c r="D94">
         <v>34</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1551307393.4100001</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5800001621246338</v>
       </c>
       <c r="C95">
@@ -4922,13 +5314,20 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1551307395.9300001</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.100000143051147</v>
       </c>
       <c r="C96">
@@ -4937,13 +5336,20 @@
       <c r="D96">
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1551307396.02</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.190000057220459</v>
       </c>
       <c r="C97">
@@ -4952,13 +5358,20 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1551307396.1199999</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.289999961853027</v>
       </c>
       <c r="C98">
@@ -4967,13 +5380,20 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1551307396.21</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.380000114440918</v>
       </c>
       <c r="C99">
@@ -4982,13 +5402,20 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1551307396.3</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.470000028610229</v>
       </c>
       <c r="C100">
@@ -4997,13 +5424,20 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1551307396.4000001</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.570000171661377</v>
       </c>
       <c r="C101">
@@ -5012,13 +5446,20 @@
       <c r="D101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1551307396.49</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.660000085830688</v>
       </c>
       <c r="C102">
@@ -5027,13 +5468,20 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1551307396.5899999</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.759999990463257</v>
       </c>
       <c r="C103">
@@ -5042,13 +5490,20 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1551307396.6800001</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.850000143051147</v>
       </c>
       <c r="C104">
@@ -5057,13 +5512,20 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1551307396.77</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.940000057220459</v>
       </c>
       <c r="C105">
@@ -5072,13 +5534,20 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1551307396.8699999</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.039999961853027</v>
       </c>
       <c r="C106">
@@ -5087,13 +5556,20 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1551307396.96</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.130000114440918</v>
       </c>
       <c r="C107">
@@ -5102,13 +5578,20 @@
       <c r="D107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1551307397.05</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.220000028610229</v>
       </c>
       <c r="C108">
@@ -5117,13 +5600,20 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1551307397.1500001</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.320000171661377</v>
       </c>
       <c r="C109">
@@ -5132,13 +5622,20 @@
       <c r="D109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1551307397.24</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.410000085830688</v>
       </c>
       <c r="C110">
@@ -5147,13 +5644,20 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1551307397.3299999</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="C111">
@@ -5162,13 +5666,20 @@
       <c r="D111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1551307397.4300001</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.600000143051147</v>
       </c>
       <c r="C112">
@@ -5177,13 +5688,20 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1551307397.53</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.700000047683716</v>
       </c>
       <c r="C113">
@@ -5192,13 +5710,20 @@
       <c r="D113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1551307397.6199999</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.789999961853027</v>
       </c>
       <c r="C114">
@@ -5207,13 +5732,20 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1551307397.71</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.880000114440918</v>
       </c>
       <c r="C115">
@@ -5222,13 +5754,20 @@
       <c r="D115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1551307397.8</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.970000028610229</v>
       </c>
       <c r="C116">
@@ -5237,13 +5776,20 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1551307397.9000001</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.070000171661377</v>
       </c>
       <c r="C117">
@@ -5252,13 +5798,20 @@
       <c r="D117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1551307397.99</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.160000085830688</v>
       </c>
       <c r="C118">
@@ -5267,13 +5820,20 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1551307398.0799999</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.25</v>
       </c>
       <c r="C119">
@@ -5282,13 +5842,20 @@
       <c r="D119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1551307398.1800001</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.350000143051147</v>
       </c>
       <c r="C120">
@@ -5297,13 +5864,20 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1551307398.27</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.440000057220459</v>
       </c>
       <c r="C121">
@@ -5312,13 +5886,20 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1551307398.3699999</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.539999961853027</v>
       </c>
       <c r="C122">
@@ -5327,13 +5908,20 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1551307398.46</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.630000114440918</v>
       </c>
       <c r="C123">
@@ -5342,13 +5930,20 @@
       <c r="D123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1551307398.55</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.720000028610229</v>
       </c>
       <c r="C124">
@@ -5357,13 +5952,20 @@
       <c r="D124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1551307398.6500001</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.820000171661377</v>
       </c>
       <c r="C125">
@@ -5372,13 +5974,20 @@
       <c r="D125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1551307398.74</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.910000085830688</v>
       </c>
       <c r="C126">
@@ -5387,13 +5996,20 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1551307398.8299999</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C127">
@@ -5402,13 +6018,20 @@
       <c r="D127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1551307398.9300001</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.100000143051147</v>
       </c>
       <c r="C128">
@@ -5417,13 +6040,20 @@
       <c r="D128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1551307399.02</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.190000057220459</v>
       </c>
       <c r="C129">
@@ -5432,13 +6062,20 @@
       <c r="D129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1551307399.1199999</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.289999961853027</v>
       </c>
       <c r="C130">
@@ -5447,13 +6084,20 @@
       <c r="D130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1551307399.21</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B136" si="2">A131-1551307384.83</f>
+        <f t="shared" ref="B131:B136" si="4">A131-1551307384.83</f>
         <v>14.380000114440918</v>
       </c>
       <c r="C131">
@@ -5462,13 +6106,20 @@
       <c r="D131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="5">ABS((C131-D131)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1551307399.3</v>
       </c>
       <c r="B132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.470000028610229</v>
       </c>
       <c r="C132">
@@ -5477,13 +6128,20 @@
       <c r="D132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1551307399.4000001</v>
       </c>
       <c r="B133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.570000171661377</v>
       </c>
       <c r="C133">
@@ -5492,13 +6150,20 @@
       <c r="D133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1551307399.49</v>
       </c>
       <c r="B134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.660000085830688</v>
       </c>
       <c r="C134">
@@ -5507,13 +6172,20 @@
       <c r="D134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1551307399.5799999</v>
       </c>
       <c r="B135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.75</v>
       </c>
       <c r="C135">
@@ -5522,13 +6194,20 @@
       <c r="D135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1551307399.6800001</v>
       </c>
       <c r="B136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.850000143051147</v>
       </c>
       <c r="C136">
@@ -5537,8 +6216,16 @@
       <c r="D136">
         <v>0</v>
       </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F136" xr:uid="{437011BC-A4A2-42AF-BB88-46841719E8EF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
